--- a/data/examples/上传文件格式说明/5-线文件-行政区名称.xlsx
+++ b/data/examples/上传文件格式说明/5-线文件-行政区名称.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baidu/Downloads/上传文件格式说明/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hedongran/baidu/mapV-editor/data/examples/上传文件格式说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B46F7747-E687-6041-8666-8686940C45B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="5400" windowWidth="25600" windowHeight="14460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -377,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,14 +413,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -503,11 +496,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,6 +529,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -830,21 +823,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -852,7 +845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -860,7 +853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -868,7 +861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -876,7 +869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -884,7 +877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -892,7 +885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -900,7 +893,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -908,7 +901,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -916,7 +909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -924,7 +917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -932,8 +925,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -942,12 +933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -955,19 +946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -987,7 +978,7 @@
         <v>1|106.483366,29.456246,5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -999,7 +990,7 @@
         <v>1|107.421813,29.706442,5000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1002,7 @@
         <v>1|124.876963,46.633356,5000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1014,7 @@
         <v>1|119.961748,30.274825,5000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1026,7 @@
         <v>1|123.065402,41.112967,5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1038,7 @@
         <v>1|122.034273,46.093476,5000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1050,7 @@
         <v>1|117.243267,34.217584,5000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1062,7 @@
         <v>1|118.362734,35.113302,5000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1074,7 @@
         <v>1|121.260825,38.832425,5000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1086,7 @@
         <v>1|109.989131,39.826828,5000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1098,7 @@
         <v>1|91.185811,29.663144,5000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1110,7 @@
         <v>1|115.993428,36.482359,5000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1122,7 @@
         <v>1|118.333846,32.293606,5000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1143,7 +1134,7 @@
         <v>1|120.428377,36.312303,5000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1146,7 @@
         <v>1|113.413113,31.695613,5000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1158,7 @@
         <v>1|119.58165,39.958874,5000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +1170,7 @@
         <v>1|114.312784,29.843489,5000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1182,7 @@
         <v>1|114.03493,33.007838,5000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1194,7 @@
         <v>1|116.98711,33.646427,5000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1206,7 @@
         <v>1|113.724987,34.855711,5000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1218,7 @@
         <v>1|119.556425,35.437562,5000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>1|111.01864, 21.53626,5000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1242,7 @@
         <v>1|115.518258,38.852489,5000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>1|115.032324,35.797001,5000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1266,7 @@
         <v>1|125.937806,41.707392,5000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1278,7 @@
         <v>1|117.201,35.116015,5000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1290,7 @@
         <v>1|107.426128,40.761443,5000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1302,7 @@
         <v>1|112.872389,34.180708,5000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1323,7 +1314,7 @@
         <v>1|119.162712,33.53364,5000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>1|118.772546,34.103577,5000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1347,7 +1338,7 @@
         <v>1|123.46731,41.692341,5000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1350,7 @@
         <v>1|107.097474,29.166214,5000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>1|121.518071,31.033257,5000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1374,7 @@
         <v>1|113.253506,22.698361,5000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1395,7 +1386,7 @@
         <v>1|114.498235,38.007638,5000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1398,7 @@
         <v>1|111.788109,37.144225,5000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1410,7 @@
         <v>1|113.763574,34.771774,5000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1422,7 @@
         <v>1|113.253498,22.698415,5000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>39</v>
       </c>

--- a/data/examples/上传文件格式说明/5-线文件-行政区名称.xlsx
+++ b/data/examples/上传文件格式说明/5-线文件-行政区名称.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hedongran/baidu/mapV-editor/data/examples/上传文件格式说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B46F7747-E687-6041-8666-8686940C45B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D06B9BCD-7D42-2E4C-AFD2-215D2A56EB8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
